--- a/Tabellen/vorlage.xlsx
+++ b/Tabellen/vorlage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\daten\kfz-meister\T3-Kaufmann\notiz\Tabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\daten\kfz\Leasing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7941BCC-5366-45E9-A009-FC6BA022F754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBDD4D7-38E0-4D9A-9C20-042D7DE0B2ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3FEFAF7E-B841-41A5-9503-998490B2CFF8}"/>
   </bookViews>
@@ -35,13 +35,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,7 +72,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -315,7 +321,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF52EBF9-E0D2-48FB-81A0-909AA19EB64D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Tabellen/vorlage.xlsx
+++ b/Tabellen/vorlage.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\daten\kfz\Leasing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\daten\kfz-meister\T3-Kaufmann\notiz\Tabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBDD4D7-38E0-4D9A-9C20-042D7DE0B2ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACEDF5D6-3B53-4899-BA3A-51342380030D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3FEFAF7E-B841-41A5-9503-998490B2CFF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Steuerung" sheetId="2" r:id="rId2"/>
+    <sheet name="Daten" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,19 +37,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Source Sans Pro"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Source Code Pro"/>
-      <family val="3"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,9 +79,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -133,14 +145,14 @@
         <a:srgbClr val="B26B02"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Arial">
+    <a:fontScheme name="ju">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
+        <a:latin typeface="Source Sans Pro SemiBold"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
+        <a:latin typeface="Source Sans Pro"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -322,15 +334,58 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.21875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.5546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8036E0-AACF-4978-A5B7-FCC10184883C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="11.19921875" style="1"/>
+    <col min="1" max="1" width="4.44140625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="11.5546875" style="2"/>
   </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <sheetData>
+    <row r="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6C0806-C539-4B3C-9715-B03F38020B97}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.5546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tabellen/vorlage.xlsx
+++ b/Tabellen/vorlage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\daten\kfz-meister\T3-Kaufmann\notiz\Tabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\daten\tex\Notizen-TeX-Web\Tabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACEDF5D6-3B53-4899-BA3A-51342380030D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA2CF31-4A13-4675-BCBA-B914F0CEF94C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3FEFAF7E-B841-41A5-9503-998490B2CFF8}"/>
   </bookViews>
@@ -37,26 +37,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Source Sans Pro"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,12 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -145,14 +135,14 @@
         <a:srgbClr val="B26B02"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="ju">
+    <a:fontScheme name="Benutzerdefiniert 1">
       <a:majorFont>
-        <a:latin typeface="Source Sans Pro SemiBold"/>
+        <a:latin typeface="Times New Roman"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Source Sans Pro"/>
+        <a:latin typeface="Times New Roman"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -334,16 +324,16 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.21875" style="1" customWidth="1"/>
     <col min="2" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -355,16 +345,16 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -375,16 +365,16 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
